--- a/baselines/dmbert/sentivent/experiment result/result.xlsx
+++ b/baselines/dmbert/sentivent/experiment result/result.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Xu\PycharmProjects\finance-event-extraction\baselines\dmbert\sentivent\experiment result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648C16C-E71E-4645-BAA3-0FBC87C74438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CCADE-88EF-4BD3-BC25-E361CCB0756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="DMBERT" sheetId="2" r:id="rId4"/>
+    <sheet name="BERTCRF" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Sentivent</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +95,54 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>finbert dev/test proportion 0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finbert dev/test proportion 0.10</t>
+  </si>
+  <si>
+    <t>BERTCRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERT-LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4347432±0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.438955±0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finbert domain BERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General domain BERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +169,21 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +196,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,11 +217,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,16 +248,53 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,37 +577,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -503,213 +632,1110 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.41</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.39800000000000002</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.69699999999999995</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.58499999999999996</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.63600000000000001</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.38600000000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.42199999999999999</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="7">
         <v>0.40500000000000003</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="7">
         <v>0.40655000000000002</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="7">
         <v>0.373</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="7">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="7">
         <v>0.38300000000000001</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>1E-4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="7">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="7">
         <v>0.29899999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="7">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.378</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="5">
         <v>0.33100000000000002</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="5">
         <v>0.35299999999999998</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="5">
         <v>0.72599999999999998</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="5">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H9" s="5">
         <v>0.73</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C9" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="5">
         <v>0.4</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="5">
         <v>0.39700000000000002</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="2" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.443</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C12" s="7">
         <v>0.4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D12" s="7">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E12" s="7">
         <v>0.05</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D13" s="5">
         <v>0.46800000000000003</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E13" s="5">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F13" s="5">
         <v>0.67</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G13" s="5">
         <v>0.79600000000000004</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H13" s="5">
         <v>0.72799999999999998</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA74A17-71FD-4CF7-B1B6-F0E093F13B7E}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1A7BAB-29A5-4384-9ADB-E20E240E2CE2}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20">
+        <v>0.48427799999999993</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.39693799999999996</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.43474319999999994</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.48427799999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.39693799999999996</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="21">
+        <v>0.44625399999999998</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.435062</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.4389556</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.44625399999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.435062</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7750BC5D-97ED-41A5-A7F5-176B9C047ADA}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.40099000000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.41186</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.40634999999999999</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.53737999999999997</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.38983000000000001</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.45186599999999999</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.47082000000000002</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.48427799999999993</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
+        <v>0.39693799999999996</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43474319999999994</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.443</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.47327999999999998</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.42032999999999998</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.44519999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.43558999999999998</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.47858000000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.45607799999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.41389999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.3881</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.42959999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6">
+        <f>AVERAGE(C11:C15)</f>
+        <v>0.44625399999999998</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:E16" si="1">AVERAGE(D11:D15)</f>
+        <v>0.435062</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.4389556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE20651-2143-482E-8D82-8150D3060636}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.443</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.47327999999999998</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.42032999999999998</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.43558999999999998</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.47858000000000001</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.45607799999999998</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.3881</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.44625399999999998</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:E9" si="0">AVERAGE(D4:D8)</f>
+        <v>0.435062</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4389556</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
